--- a/Project Log.xlsx
+++ b/Project Log.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Tasks To Begin Tomorrow</t>
-  </si>
-  <si>
     <t>Tasks Completed Today</t>
   </si>
   <si>
@@ -36,10 +33,19 @@
     <t>Added TileArray, a class to store the tiles in a room</t>
   </si>
   <si>
-    <t>Removed SparseList/Array; Added RectangleList and ListUtils to replace those.</t>
-  </si>
-  <si>
-    <t>Add documentation to RectangleList and ListUtils. Add world conversion from char arrays.</t>
+    <t>Removed SparseList/Array; Added RectangleList and ListUtils to replace those. Added MatrixArray. Created RoomGenerator. Added methods in Tile. Added more documentation.</t>
+  </si>
+  <si>
+    <t>Tasks To Begin Next</t>
+  </si>
+  <si>
+    <t>Add documentation to RectangleList and ListUtils. Add world conversion from char arrays. (completed after school)</t>
+  </si>
+  <si>
+    <t>Added more documentation. Rename MatrixArray to RectangleArray.</t>
+  </si>
+  <si>
+    <t>Find a better class name for RectangleArray and RectangleList. Finish Tile. Start room rendering.</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -432,7 +438,7 @@
         <v>42133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -440,7 +446,7 @@
         <v>42134</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -448,7 +454,7 @@
         <v>42135</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -456,10 +462,21 @@
         <v>42136</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42138</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
